--- a/rqfs 1 entrega.xlsx
+++ b/rqfs 1 entrega.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Sebastian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cba425722e35f70/Documentos/GitHub/proyectoIngDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D699ED7C-90AE-47F1-87E7-28654C2656EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8368473A-9071-4892-8DE2-6C1D4E9094B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="317">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2780,13 +2780,193 @@
   </si>
   <si>
     <t>Una vez actualizado, se debe mostrar un mensaje de confirmación.</t>
+  </si>
+  <si>
+    <r>
+      <t>El sistema debe permitir visualizar el estado actual del conductor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (activo o inactivo)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador debe poder cambiar el estado del conductor desde una interfaz </t>
+  </si>
+  <si>
+    <t>El sistema no debe permitir asignar un viaje a un conductor inactivo</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador registrar un nuevo conductor con los datos obligatorios</t>
+  </si>
+  <si>
+    <t>El sistema debe confirmar el éxito o fallo del registro mediante un mensaje claro</t>
+  </si>
+  <si>
+    <t>El nuevo conductor debe aparecer en la lista de conductores disponibles para asignación de viajes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir buscar un conductor ingresando su número de documento</t>
+  </si>
+  <si>
+    <t>Si el documento ingresado existe, debera mostrar la información del conductor(nombre, telefono, etc)</t>
+  </si>
+  <si>
+    <t>Si el documento no esta registrado en la BD, mostrara como inexistente al conductor</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir buscar la EPS deun conductor ingresando su número de documento o nombre</t>
+  </si>
+  <si>
+    <t>Si el conductor no tiene EPS registrada, el sistema debe mostrar un mensaje de que no tiene asignada</t>
+  </si>
+  <si>
+    <t>Si el conductor no existe, el sistema debe mostrar un mensaje indicando que no se encontró información</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe mostrar la EPS actual del conductor antes de la actualización</t>
+  </si>
+  <si>
+    <t>El administrador debe poder seleccionar una nueva EPS de una lista predefinida o ingresar manualmente una nueva</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el número actual de viajes realizados por el conductor antes de la actualización</t>
+  </si>
+  <si>
+    <t>El administrador debe poder incrementar el contador de viajes manualmente o mediante el registro de un nuevo viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe validar que el conductor esté activo antes de permitir la actualización del contador</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el número de teléfono actual del conductor antes de la actualización</t>
+  </si>
+  <si>
+    <t>El administrador debe poder ingresar un nuevo número de contacto y confirmarlo antes de guardarlo</t>
+  </si>
+  <si>
+    <t>Debe validar que el número ingresado tenga el formato correcto</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el número total de viajes realizados por el conductor</t>
+  </si>
+  <si>
+    <t>Si el conductor no tiene viajes registrados, el sistema debe mostrar un mensaje indicándolo</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir buscar un conductor ingresando su número de documento o nombre</t>
+  </si>
+  <si>
+    <t>Debe mostrar la fecha de contratación del conductor de manera clara y precisa</t>
+  </si>
+  <si>
+    <t>Mostrara el tiempo que el conductor lleva en la empresa</t>
+  </si>
+  <si>
+    <t>Debe mostrar el número total de multas registradas para el conductor</t>
+  </si>
+  <si>
+    <t>Debe permitir agregar una nueva multa a un conductor, especificando detalles como fecha, motivo y estado</t>
+  </si>
+  <si>
+    <t>Debe permitir modificar la información de una multa existente, como su estado o detalles.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir buscar la duración de un viaje ingresando el identificador del viaje o el nombre del conductor</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un tiempo estimado de duración basado en la información registrada</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar la hora de inicio y la hora estimada de finalización del viaje</t>
+  </si>
+  <si>
+    <t>Debe proporcionar detalles de cada multa, como  motivo y estado</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador modificar la duración estimada de un viaje ingresando un nuevo tiempo</t>
+  </si>
+  <si>
+    <t>El sistema debe generar una notificación o alerta a los usuarios cuando la duración del viaje se actualice</t>
+  </si>
+  <si>
+    <t>Debe registrar la fecha y hora de la actualización de la duración del viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador modificar el número de escalas de un viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe notificar a los conductores y pasajeros afectados cuando se modifique el número de escalas</t>
+  </si>
+  <si>
+    <t>El sistema debe almacenar un historial de cambios en el número de escalas de cada viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador ingresar los datos del viaje, incluyendo duración estimada y número de escalas</t>
+  </si>
+  <si>
+    <t>El sistema debe generar un id único para cada viaje creado</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir consultar el viaje recién creado en el historial de viajes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador registrar un nuevo vehículo con información clave como placa, modelo, marca, estado soat …</t>
+  </si>
+  <si>
+    <t>Se debe generar un id único para cada vehículo registrado</t>
+  </si>
+  <si>
+    <t>Tiene que permitir la consulta y actualización de la información del vehículo en caso de modificaciones futuras</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador activar o desactivar un vehículo según su estado operativo</t>
+  </si>
+  <si>
+    <t>Debe validarse que el vehículo seleccionado exista en la base de datos antes de cambiar su estado</t>
+  </si>
+  <si>
+    <t>Si se asegura que el vehiculo no existe en la BD aparecera un mensaje que termine la operación</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador/supervisor ingresar un identificador de vehículo para consultar su descripción</t>
+  </si>
+  <si>
+    <t>La consulta debe devolver información clave como color, marca, modelo y placa del vehículo</t>
+  </si>
+  <si>
+    <t>Si el vehículo no existe en la base de datos, se debe mostrar un mensaje de error</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador/supervisor ingresar un identificador del vehículo (placa o ID) para consultar los impuestos</t>
+  </si>
+  <si>
+    <t>La consulta debe devolver el valor total de los impuestos del vehículo para el período seleccionado</t>
+  </si>
+  <si>
+    <t>Si el vehículo no tiene impuestos registrados, se debe mostrar un mensaje indicando esta situación</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador ingresar el identificador del vehículo (placa o ID) para actualizar su información de impuestos</t>
+  </si>
+  <si>
+    <t>Debe validar que el nuevo valor de impuestos ingresado sea un número positivo y acorde a la normativa vigente</t>
+  </si>
+  <si>
+    <t>Si el vehículo tiene impuestos pendientes de años anteriores, el sistema debe alertar al usuario antes de la actualización</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2796,6 +2976,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -3004,13 +3191,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3039,23 +3273,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3067,34 +3286,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3135,29 +3345,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3504,1876 +3697,2084 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="12" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="21" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="21" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="12" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="G7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="M7" s="12" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="M7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="18" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="21" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="G12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="12" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="M12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="21" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="M16" s="3" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="M16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="12" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="G17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="G22" s="12" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="G22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="M22" s="12" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="M22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="18" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="21" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="G26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="8"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="24"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="13"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="12" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="M32" s="12" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="M32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="27"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="18" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="21" t="s">
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="27"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="12" t="s">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="30"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="12" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="M37" s="12" t="s">
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="M37" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="18" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="21" t="s">
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="12" t="s">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="24"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="G42" s="12" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="G42" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="M42" s="12" t="s">
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="M42" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="27"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="16"/>
     </row>
     <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="18" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="21" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="27"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="16"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="12" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="30"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="19"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="M46" s="3" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="M46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="5"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="22"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="G47" s="12" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="G47" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="8"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="18" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="12" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="11"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="24"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="13"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="G52" s="12" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="G52" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-      <c r="M52" s="12" t="s">
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="39"/>
+      <c r="M52" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="13" t="s">
+      <c r="N52" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="27"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="16"/>
     </row>
     <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="18" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="21" t="s">
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="27"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="16"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="12" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="12" t="s">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="30"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="19"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="G56" s="3" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="G56" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="5"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="5"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="24"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="13"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="8"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="8"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="27"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="25"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="16"/>
     </row>
     <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="8"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="27"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="16"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="11"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="11"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="30"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="19"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="33"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="42"/>
       <c r="M61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="N61" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="S61" s="3" t="s">
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="S61" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="5"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="22"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="G62" s="34" t="s">
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="G62" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17"/>
-      <c r="M62" s="12" t="s">
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="39"/>
+      <c r="M62" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N62" s="13" t="s">
+      <c r="N62" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="8"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="25"/>
     </row>
     <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="37" t="s">
+      <c r="A63" s="44"/>
+      <c r="B63" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="18" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="21" t="s">
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="32"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="8"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="25"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="40" t="s">
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="42"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="12" t="s">
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="11"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="28"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="G66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="M66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="24"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="13"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="G67" s="12" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="G67" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="17"/>
-      <c r="M67" s="12" t="s">
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="39"/>
+      <c r="M67" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N67" s="13" t="s">
+      <c r="N67" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="26"/>
-      <c r="V67" s="26"/>
-      <c r="W67" s="27"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="16"/>
     </row>
     <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="18" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="21" t="s">
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="32"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="27"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="12" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="12" t="s">
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="30"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="19"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="G71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
       <c r="M71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="N71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="S71" s="3" t="s">
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="S71" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="5"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="22"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="G72" s="12" t="s">
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="G72" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="17"/>
-      <c r="M72" s="12" t="s">
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="39"/>
+      <c r="M72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="N72" s="13" t="s">
+      <c r="N72" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="8"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="25"/>
     </row>
     <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="34"/>
+      <c r="B73" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="18" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="20"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="21" t="s">
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="32"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="8"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="25"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="12" t="s">
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="12" t="s">
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="11"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="28"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
       <c r="G76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
       <c r="M76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="N76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="S76" s="3" t="s">
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="S76" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="5"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="22"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="G77" s="12" t="s">
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="G77" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="17"/>
-      <c r="M77" s="12" t="s">
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="39"/>
+      <c r="M77" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N77" s="13" t="s">
+      <c r="N77" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="8"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="25"/>
     </row>
     <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="18" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="20"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="21" t="s">
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="32"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="8"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="12" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="12" t="s">
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="11"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="28"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="G80" s="3" t="s">
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="G80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="5"/>
-      <c r="M80" s="3" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
+      <c r="M80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="5"/>
-      <c r="S80" s="3" t="s">
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="22"/>
+      <c r="S80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="5"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="22"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="8"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="8"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="25"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="25"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="25"/>
     </row>
     <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="8"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="8"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="25"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="25"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="25"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="11"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="11"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="11"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="28"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="S80:W83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="G80:K83"/>
+    <mergeCell ref="M80:Q83"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="S76:W79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="S71:W74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="M72:M74"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="S66:W69"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="S61:W64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="S56:W59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G56:K59"/>
+    <mergeCell ref="M56:Q59"/>
+    <mergeCell ref="S51:W54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M16:Q19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G26:K29"/>
+    <mergeCell ref="M26:Q29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="R31:V34"/>
     <mergeCell ref="S41:W44"/>
     <mergeCell ref="M46:Q49"/>
@@ -5398,214 +5799,6 @@
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G26:K29"/>
-    <mergeCell ref="M26:Q29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="M16:Q19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="S56:W59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G56:K59"/>
-    <mergeCell ref="M56:Q59"/>
-    <mergeCell ref="S51:W54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="S61:W64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="S71:W74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="M72:M74"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="S66:W69"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="S80:W83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="G80:K83"/>
-    <mergeCell ref="M80:Q83"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="S76:W79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5615,851 +5808,971 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB372E8-5C3C-4A03-8262-1EEC197B4526}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="G3" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="M3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="21" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="21" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12" t="s">
+      <c r="I5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="12" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="M8" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="21" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12" t="s">
+      <c r="C10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12" t="s">
+      <c r="I10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="O10" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="12" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="G13" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="M13" s="12" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="M13" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="18" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="21" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12" t="s">
+      <c r="I15" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="O15" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="3" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="M17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="12" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="G18" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="12" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="G23" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="M23" s="12" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="M23" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="18" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="21" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12" t="s">
+      <c r="C25" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12" t="s">
+      <c r="I25" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="O25" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="3" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="G27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="8"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="11"/>
+      <c r="C30" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="13"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="G33" s="12" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="G33" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="M33" s="12" t="s">
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="M33" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="27"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="18" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="21" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="27"/>
-    </row>
-    <row r="35" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12" t="s">
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+    </row>
+    <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12" t="s">
+      <c r="C35" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="12" t="s">
+      <c r="I35" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="30"/>
+      <c r="O35" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="G38" s="12" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="G38" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="M38" s="12" t="s">
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="M38" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
     </row>
     <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="18" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="21" t="s">
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12" t="s">
+      <c r="C40" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="44" t="s">
+      <c r="I40" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" s="34"/>
+      <c r="N40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="47" t="s">
+      <c r="P40" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6467,1327 +6780,1229 @@
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
       <c r="M42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="24"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="G43" s="12" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="G43" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="M43" s="12" t="s">
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="M43" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="27"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="16"/>
     </row>
     <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="18" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="21" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="27"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="16"/>
     </row>
     <row r="45" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="44" t="s">
+      <c r="G45" s="34"/>
+      <c r="H45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K45" s="47" t="s">
+      <c r="K45" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="44" t="s">
+      <c r="M45" s="34"/>
+      <c r="N45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O45" s="47" t="s">
+      <c r="O45" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P45" s="47" t="s">
+      <c r="P45" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q45" s="47" t="s">
+      <c r="Q45" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S45" s="28"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="30"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="19"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="M47" s="3" t="s">
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="M47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="5"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="G48" s="12" t="s">
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="G48" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="39"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
     </row>
     <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="18" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="20"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="8"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="32"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="44" t="s">
+      <c r="G50" s="34"/>
+      <c r="H50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="J50" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="11"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
       <c r="M52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="24"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="13"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="G53" s="12" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="G53" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
-      <c r="M53" s="12" t="s">
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="39"/>
+      <c r="M53" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="N53" s="13" t="s">
+      <c r="N53" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="27"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="16"/>
     </row>
     <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="18" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="21" t="s">
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="27"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="16"/>
     </row>
     <row r="55" spans="1:23" ht="225" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="44" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="47" t="s">
+      <c r="J55" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K55" s="47" t="s">
+      <c r="K55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="44" t="s">
+      <c r="M55" s="34"/>
+      <c r="N55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O55" s="45" t="s">
+      <c r="O55" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="P55" s="47" t="s">
+      <c r="P55" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="Q55" s="47" t="s">
+      <c r="Q55" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S55" s="28"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="30"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="19"/>
     </row>
     <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="G57" s="3" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="G57" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="5"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="5"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="24"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="22"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="13"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="8"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="27"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="16"/>
     </row>
     <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="8"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="8"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="27"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="25"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="16"/>
     </row>
     <row r="60" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="11"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="30"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="19"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
       <c r="M62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="S62" s="3" t="s">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="S62" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="5"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="22"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="17"/>
-      <c r="G63" s="34" t="s">
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="G63" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17"/>
-      <c r="M63" s="12" t="s">
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="39"/>
+      <c r="M63" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N63" s="13" t="s">
+      <c r="N63" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="8"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="25"/>
     </row>
     <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="37" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="18" t="s">
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="48"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="21" t="s">
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="8"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="25"/>
     </row>
     <row r="65" spans="1:23" ht="195" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="44" t="s">
+      <c r="G65" s="45"/>
+      <c r="H65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J65" s="47" t="s">
+      <c r="J65" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K65" s="47" t="s">
+      <c r="K65" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M65" s="13"/>
-      <c r="N65" s="44" t="s">
+      <c r="M65" s="34"/>
+      <c r="N65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O65" s="47" t="s">
+      <c r="O65" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="P65" s="47" t="s">
+      <c r="P65" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="Q65" s="47" t="s">
+      <c r="Q65" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="11"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="28"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
       <c r="M67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="24"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="13"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="G68" s="12" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="G68" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="17"/>
-      <c r="M68" s="12" t="s">
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="39"/>
+      <c r="M68" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="13" t="s">
+      <c r="N68" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="27"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16"/>
     </row>
     <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="18" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="20"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="21" t="s">
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="32"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="27"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="16"/>
     </row>
     <row r="70" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="44" t="s">
+      <c r="A70" s="34"/>
+      <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="44" t="s">
+      <c r="G70" s="34"/>
+      <c r="H70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J70" s="47" t="s">
+      <c r="J70" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="K70" s="47" t="s">
+      <c r="K70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="44" t="s">
+      <c r="M70" s="34"/>
+      <c r="N70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O70" s="46"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="19"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
       <c r="M72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="S72" s="3" t="s">
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="S72" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="5"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="22"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="G73" s="12" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="G73" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="17"/>
-      <c r="M73" s="12" t="s">
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="39"/>
+      <c r="M73" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="13" t="s">
+      <c r="N73" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="8"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="25"/>
     </row>
     <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14" t="s">
+      <c r="A74" s="34"/>
+      <c r="B74" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="18" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="20"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="21" t="s">
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="32"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="8"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="25"/>
     </row>
     <row r="75" spans="1:23" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="44" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="47" t="s">
+      <c r="I75" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J75" s="47" t="s">
+      <c r="J75" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K75" s="47" t="s">
+      <c r="K75" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="M75" s="13"/>
-      <c r="N75" s="44" t="s">
+      <c r="M75" s="34"/>
+      <c r="N75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O75" s="47" t="s">
+      <c r="O75" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="P75" s="47" t="s">
+      <c r="P75" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="Q75" s="47" t="s">
+      <c r="Q75" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S75" s="9"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="11"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="28"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
       <c r="M77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="N77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="S77" s="3" t="s">
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="S77" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="5"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="22"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="G78" s="12" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="G78" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="17"/>
-      <c r="M78" s="12" t="s">
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="39"/>
+      <c r="M78" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N78" s="13" t="s">
+      <c r="N78" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="8"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
     </row>
     <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="18" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="20"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="21" t="s">
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="32"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="8"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
+      <c r="V79" s="24"/>
+      <c r="W79" s="25"/>
     </row>
     <row r="80" spans="1:23" ht="240" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="44" t="s">
+      <c r="A80" s="34"/>
+      <c r="B80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="44" t="s">
+      <c r="F80" s="4"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I80" s="47" t="s">
+      <c r="I80" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J80" s="47" t="s">
+      <c r="J80" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K80" s="47" t="s">
+      <c r="K80" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M80" s="13"/>
-      <c r="N80" s="44" t="s">
+      <c r="M80" s="34"/>
+      <c r="N80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O80" s="47" t="s">
+      <c r="O80" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P80" s="47" t="s">
+      <c r="P80" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="Q80" s="47" t="s">
+      <c r="Q80" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="S80" s="9"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="11"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="28"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="G81" s="3" t="s">
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="G81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="5"/>
-      <c r="M81" s="3" t="s">
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="22"/>
+      <c r="M81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="5"/>
-      <c r="S81" s="3" t="s">
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="22"/>
+      <c r="S81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="5"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="22"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="8"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="8"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="25"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="25"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="25"/>
     </row>
     <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="8"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="8"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="8"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="25"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="25"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="25"/>
     </row>
     <row r="84" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D84" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="11"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="11"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="11"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="28"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="28"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="28"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C85" s="52"/>
+      <c r="C85" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="M17:Q20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:K30"/>
-    <mergeCell ref="M27:Q30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:V35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:Q50"/>
-    <mergeCell ref="S42:W45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="S52:W55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="N52:Q52"/>
+  <mergeCells count="190">
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:K84"/>
+    <mergeCell ref="M81:Q84"/>
+    <mergeCell ref="S81:W84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="S77:W80"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="S72:W75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="S67:W70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:Q68"/>
     <mergeCell ref="S62:W65"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B63:E63"/>
@@ -7808,53 +8023,132 @@
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="S67:W70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="S72:W75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="S77:W80"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:K84"/>
-    <mergeCell ref="M81:Q84"/>
-    <mergeCell ref="S81:W84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="S52:W55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="S42:W45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:Q50"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:V35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:K30"/>
+    <mergeCell ref="M27:Q30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="M17:Q20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rqfs 1 entrega.xlsx
+++ b/rqfs 1 entrega.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cba425722e35f70/Documentos/GitHub/proyectoIngDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8368473A-9071-4892-8DE2-6C1D4E9094B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AE42B628-426F-4097-8D7E-50FD490F3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="330">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2960,13 +2960,52 @@
   </si>
   <si>
     <t>Si el vehículo tiene impuestos pendientes de años anteriores, el sistema debe alertar al usuario antes de la actualización</t>
+  </si>
+  <si>
+    <t>HUF003</t>
+  </si>
+  <si>
+    <t>HUF031</t>
+  </si>
+  <si>
+    <t>HUF032</t>
+  </si>
+  <si>
+    <t>HUF033</t>
+  </si>
+  <si>
+    <t>HU034</t>
+  </si>
+  <si>
+    <t>HU035</t>
+  </si>
+  <si>
+    <t>HU033</t>
+  </si>
+  <si>
+    <t>HU036</t>
+  </si>
+  <si>
+    <t>HU037</t>
+  </si>
+  <si>
+    <t>HU038</t>
+  </si>
+  <si>
+    <t>HU039</t>
+  </si>
+  <si>
+    <t>HU040</t>
+  </si>
+  <si>
+    <t>HU041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2976,13 +3015,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -3191,7 +3223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3219,33 +3251,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,8 +3278,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3286,25 +3309,34 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3342,14 +3374,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3697,1265 +3726,1265 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="36" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="33" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="G7" s="33" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="M7" s="33" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="M7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="36" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="33" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="33" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="M12" s="33" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="M12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="36" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="33" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="M16" s="20" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="M16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="33" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="G17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="33" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="M22" s="33" t="s">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="M22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="30" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="36" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33" t="s">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="G26" s="20" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="13"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="33"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="33" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="G32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="M32" s="33" t="s">
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="M32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="34" t="s">
+      <c r="N32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="16"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
     </row>
     <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="36" t="s">
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="36"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="33" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="19"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="39"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="33" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="G37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="M37" s="33" t="s">
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="M37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="30" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="36" t="s">
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="33" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="33" t="s">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="35" t="s">
+      <c r="N41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="13"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="33"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="33" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="G42" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="39"/>
-      <c r="M42" s="33" t="s">
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26"/>
+      <c r="M42" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="34" t="s">
+      <c r="N42" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="16"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="36"/>
     </row>
     <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="36" t="s">
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="16"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="33" t="s">
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="19"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="39"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="M46" s="20" t="s">
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="M46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="13"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="G47" s="33" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="G47" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="39"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="16"/>
     </row>
     <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="30" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="32"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="25"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="16"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="33" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="35" t="s">
+      <c r="N51" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="13"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="33"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="G52" s="33" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="G52" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="39"/>
-      <c r="M52" s="33" t="s">
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="26"/>
+      <c r="M52" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="34" t="s">
+      <c r="N52" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="16"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="36"/>
     </row>
     <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="30" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="32"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="36" t="s">
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="16"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="36"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="33" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="33" t="s">
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="19"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="39"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="G56" s="20" t="s">
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="G56" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="22"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="22"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="13"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="13"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="33"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="25"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="25"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="16"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="16"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="36"/>
     </row>
     <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="25"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="16"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="16"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="36"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="19"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="19"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -4979,53 +5008,53 @@
       <c r="M61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="35" t="s">
+      <c r="N61" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="S61" s="20" t="s">
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="S61" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="22"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="13"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
       <c r="G62" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="39"/>
-      <c r="M62" s="33" t="s">
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="26"/>
+      <c r="M62" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="N62" s="34" t="s">
+      <c r="N62" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="25"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="16"/>
     </row>
     <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
@@ -5036,33 +5065,33 @@
       <c r="D63" s="47"/>
       <c r="E63" s="48"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="30" t="s">
+      <c r="H63" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="32"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="36" t="s">
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="25"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="16"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
       <c r="G64" s="45"/>
       <c r="H64" s="49" t="s">
         <v>20</v>
@@ -5070,535 +5099,679 @@
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
       <c r="K64" s="51"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="33" t="s">
+      <c r="M64" s="21"/>
+      <c r="N64" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="28"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="19"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
       <c r="G66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="35" t="s">
+      <c r="H66" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
       <c r="M66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N66" s="35" t="s">
+      <c r="N66" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="13"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="33"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="G67" s="33" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="G67" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="M67" s="33" t="s">
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+      <c r="M67" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="N67" s="34" t="s">
+      <c r="N67" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="16"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="36"/>
     </row>
     <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="29" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="32"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="36" t="s">
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="16"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="36"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="33" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="33" t="s">
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="19"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
       <c r="G71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="35" t="s">
+      <c r="H71" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
       <c r="M71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N71" s="35" t="s">
+      <c r="N71" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="S71" s="20" t="s">
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="S71" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="22"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="13"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="G72" s="33" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="G72" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="39"/>
-      <c r="M72" s="33" t="s">
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="26"/>
+      <c r="M72" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="N72" s="34" t="s">
+      <c r="N72" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="25"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="16"/>
     </row>
     <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="29" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="30" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="32"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="36" t="s">
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="25"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="16"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="33" t="s">
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="28"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="19"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
       <c r="G76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="35" t="s">
+      <c r="H76" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
       <c r="M76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N76" s="35" t="s">
+      <c r="N76" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="S76" s="20" t="s">
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="S76" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="22"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="13"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="G77" s="33" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="G77" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="39"/>
-      <c r="M77" s="33" t="s">
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="26"/>
+      <c r="M77" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="N77" s="34" t="s">
+      <c r="N77" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="25"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="16"/>
     </row>
     <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="29" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="30" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="32"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="36" t="s">
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="25"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="16"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="33" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="33" t="s">
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="28"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="19"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="G80" s="20" t="s">
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="G80" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="22"/>
-      <c r="M80" s="20" t="s">
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="13"/>
+      <c r="M80" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="22"/>
-      <c r="S80" s="20" t="s">
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="13"/>
+      <c r="S80" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T80" s="21"/>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="22"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="13"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="25"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="25"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="25"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="16"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="16"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="16"/>
     </row>
     <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="29" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="25"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="25"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="25"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="16"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="16"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="16"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="28"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="28"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="28"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="19"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="232">
-    <mergeCell ref="S80:W83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="G80:K83"/>
-    <mergeCell ref="M80:Q83"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="S76:W79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="R31:V34"/>
+    <mergeCell ref="S41:W44"/>
+    <mergeCell ref="M46:Q49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G26:K29"/>
+    <mergeCell ref="M26:Q29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M16:Q19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="S56:W59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G56:K59"/>
+    <mergeCell ref="M56:Q59"/>
+    <mergeCell ref="S51:W54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="S61:W64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
     <mergeCell ref="S71:W74"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="G72:G74"/>
@@ -5623,182 +5796,38 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="N69:Q69"/>
     <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="S61:W64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="S56:W59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G56:K59"/>
-    <mergeCell ref="M56:Q59"/>
-    <mergeCell ref="S51:W54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="M16:Q19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G26:K29"/>
-    <mergeCell ref="M26:Q29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="R31:V34"/>
-    <mergeCell ref="S41:W44"/>
-    <mergeCell ref="M46:Q49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="S80:W83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="G80:K83"/>
+    <mergeCell ref="M80:Q83"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="S76:W79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5808,124 +5837,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB372E8-5C3C-4A03-8262-1EEC197B4526}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="G3" s="33" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="G3" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="M3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="M3" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="36" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="5" t="s">
         <v>262</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="8" t="s">
         <v>144</v>
       </c>
@@ -5938,7 +5967,7 @@
       <c r="K5" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M5" s="34"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="8" t="s">
         <v>144</v>
       </c>
@@ -5956,85 +5985,85 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="33" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="G8" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="M8" s="33" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="M8" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="36" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6047,7 +6076,7 @@
       <c r="E10" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6060,7 +6089,7 @@
       <c r="K10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6078,85 +6107,85 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="33" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="G13" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="M13" s="33" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="M13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="30" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="36" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6169,7 +6198,7 @@
       <c r="E15" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6182,7 +6211,7 @@
       <c r="K15" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M15" s="34"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6200,77 +6229,77 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="M17" s="20" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="M17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="30" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:22" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="8" t="s">
         <v>144</v>
       </c>
@@ -6283,7 +6312,7 @@
       <c r="E20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="8" t="s">
         <v>144</v>
       </c>
@@ -6296,95 +6325,95 @@
       <c r="K20" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="33" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="G23" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="M23" s="33" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="M23" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="36" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:22" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6397,7 +6426,7 @@
       <c r="E25" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6410,7 +6439,7 @@
       <c r="K25" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="34"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6428,67 +6457,67 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="G27" s="20" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="195" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="8" t="s">
         <v>144</v>
       </c>
@@ -6501,115 +6530,115 @@
       <c r="E30" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="N32" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="13"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="33"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="G33" s="33" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="G33" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="M33" s="33" t="s">
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+      <c r="M33" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="36"/>
     </row>
     <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="36" t="s">
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="36"/>
     </row>
     <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6622,7 +6651,7 @@
       <c r="E35" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6635,7 +6664,7 @@
       <c r="K35" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6648,95 +6677,95 @@
       <c r="Q35" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="19"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="35" t="s">
+      <c r="N37" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="33" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="G38" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="M38" s="33" t="s">
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
+      <c r="M38" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="30" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="36" t="s">
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="8" t="s">
         <v>144</v>
       </c>
@@ -6749,7 +6778,7 @@
       <c r="E40" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="8" t="s">
         <v>144</v>
       </c>
@@ -6762,7 +6791,7 @@
       <c r="K40" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="2" t="s">
         <v>144</v>
       </c>
@@ -6780,100 +6809,100 @@
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="M42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="13"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="33"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="G43" s="33" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="G43" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="39"/>
-      <c r="M43" s="33" t="s">
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="M43" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="N43" s="34" t="s">
+      <c r="N43" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="16"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
     </row>
     <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="30" t="s">
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="36" t="s">
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="16"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="36"/>
     </row>
     <row r="45" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6886,7 +6915,7 @@
       <c r="E45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="34"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6899,7 +6928,7 @@
       <c r="K45" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="34"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6912,87 +6941,87 @@
       <c r="Q45" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S45" s="17"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="19"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="39"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="M47" s="20" t="s">
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="M47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="22"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="13"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="G48" s="33" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="G48" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="39"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="26"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="16"/>
     </row>
     <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="30" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="25"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="16"/>
     </row>
     <row r="50" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
@@ -7005,7 +7034,7 @@
       <c r="E50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="2" t="s">
         <v>144</v>
       </c>
@@ -7018,110 +7047,110 @@
       <c r="K50" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="19"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
       <c r="M52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="35" t="s">
+      <c r="N52" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="13"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="33"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="G53" s="33" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="G53" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
-      <c r="M53" s="33" t="s">
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="26"/>
+      <c r="M53" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="N53" s="34" t="s">
+      <c r="N53" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="16"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="36"/>
     </row>
     <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="30" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="36" t="s">
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="16"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="36"/>
     </row>
     <row r="55" spans="1:23" ht="225" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7134,7 +7163,7 @@
       <c r="E55" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7147,7 +7176,7 @@
       <c r="K55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="34"/>
+      <c r="M55" s="21"/>
       <c r="N55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7160,93 +7189,93 @@
       <c r="Q55" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S55" s="17"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="19"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="39"/>
     </row>
     <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="G57" s="20" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="G57" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="22"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="22"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="13"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="33"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="25"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="16"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="16"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="36"/>
     </row>
     <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="25"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="16"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="16"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="36"/>
     </row>
     <row r="60" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
@@ -7259,91 +7288,91 @@
       <c r="E60" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="19"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="19"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="19"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
       <c r="M62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="35" t="s">
+      <c r="N62" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="S62" s="20" t="s">
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="S62" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="22"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="13"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
       <c r="G63" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="39"/>
-      <c r="M63" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="N63" s="34" t="s">
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="26"/>
+      <c r="M63" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="N63" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="25"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="16"/>
     </row>
     <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
@@ -7354,24 +7383,24 @@
       <c r="D64" s="47"/>
       <c r="E64" s="48"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="30" t="s">
+      <c r="H64" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="32"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="36" t="s">
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="25"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="16"/>
     </row>
     <row r="65" spans="1:23" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="45"/>
@@ -7400,7 +7429,7 @@
       <c r="K65" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M65" s="34"/>
+      <c r="M65" s="21"/>
       <c r="N65" s="2" t="s">
         <v>144</v>
       </c>
@@ -7413,110 +7442,110 @@
       <c r="Q65" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="S65" s="26"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="28"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="19"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H67" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
       <c r="M67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="35" t="s">
+      <c r="N67" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="13"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="33"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="34" t="s">
+      <c r="A68" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="G68" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H68" s="37" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="G68" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="39"/>
-      <c r="M68" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="N68" s="34" t="s">
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="26"/>
+      <c r="M68" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="N68" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="16"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="36"/>
     </row>
     <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="29" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="30" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="32"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="36" t="s">
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="16"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="36"/>
     </row>
     <row r="70" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
@@ -7529,7 +7558,7 @@
       <c r="E70" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G70" s="34"/>
+      <c r="G70" s="21"/>
       <c r="H70" s="2" t="s">
         <v>144</v>
       </c>
@@ -7542,119 +7571,119 @@
       <c r="K70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="M70" s="34"/>
+      <c r="M70" s="21"/>
       <c r="N70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="19"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="35" t="s">
+      <c r="H72" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
       <c r="M72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="35" t="s">
+      <c r="N72" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="S72" s="20" t="s">
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="S72" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="22"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="13"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="34" t="s">
+      <c r="A73" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="G73" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="37" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="G73" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="H73" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="39"/>
-      <c r="M73" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N73" s="34" t="s">
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="26"/>
+      <c r="M73" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="N73" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="25"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="16"/>
     </row>
     <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="32"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="36" t="s">
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="25"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="16"/>
     </row>
     <row r="75" spans="1:23" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7662,7 +7691,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="34"/>
+      <c r="G75" s="21"/>
       <c r="H75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7675,7 +7704,7 @@
       <c r="K75" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="M75" s="34"/>
+      <c r="M75" s="21"/>
       <c r="N75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7688,112 +7717,112 @@
       <c r="Q75" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S75" s="26"/>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="28"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="19"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="H77" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
       <c r="M77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="35" t="s">
+      <c r="N77" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="S77" s="20" t="s">
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="S77" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="22"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="13"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="G78" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="37" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="G78" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="39"/>
-      <c r="M78" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="N78" s="34" t="s">
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="26"/>
+      <c r="M78" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="N78" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="25"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="16"/>
     </row>
     <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="29" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="30" t="s">
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="32"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="36" t="s">
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="25"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="16"/>
     </row>
     <row r="80" spans="1:23" ht="240" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7807,7 +7836,7 @@
         <v>251</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="34"/>
+      <c r="G80" s="21"/>
       <c r="H80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7820,7 +7849,7 @@
       <c r="K80" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M80" s="34"/>
+      <c r="M80" s="21"/>
       <c r="N80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7833,96 +7862,96 @@
       <c r="Q80" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="S80" s="26"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="28"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="19"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="G81" s="20" t="s">
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="G81" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="22"/>
-      <c r="M81" s="20" t="s">
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="13"/>
+      <c r="M81" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="22"/>
-      <c r="S81" s="20" t="s">
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="13"/>
+      <c r="S81" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="22"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="13"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="34" t="s">
+      <c r="A82" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="25"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="25"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="25"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="16"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="16"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="16"/>
     </row>
     <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="29" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="25"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="25"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="25"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="16"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="16"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="16"/>
     </row>
     <row r="84" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="8" t="s">
         <v>144</v>
       </c>
@@ -7936,73 +7965,151 @@
         <v>260</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="28"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="28"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="28"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="19"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="19"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="19"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C85" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:K84"/>
-    <mergeCell ref="M81:Q84"/>
-    <mergeCell ref="S81:W84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="S77:W80"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="S72:W75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="S67:W70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="M17:Q20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:K30"/>
+    <mergeCell ref="M27:Q30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:V35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:Q50"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="S42:W45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="S52:W55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="N52:Q52"/>
     <mergeCell ref="S62:W65"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B63:E63"/>
@@ -8023,130 +8130,52 @@
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="S52:W55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="S42:W45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:Q50"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:V35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:K30"/>
-    <mergeCell ref="M27:Q30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="M17:Q20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="S67:W70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="S72:W75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="S77:W80"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:K84"/>
+    <mergeCell ref="M81:Q84"/>
+    <mergeCell ref="S81:W84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rqfs 1 entrega.xlsx
+++ b/rqfs 1 entrega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cba425722e35f70/Documentos/GitHub/proyectoIngDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamour\Documents\GitHub\proyectoIngDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{AE42B628-426F-4097-8D7E-50FD490F3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FDBD82-0A42-4C19-B6BD-56D6F98D5F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -3022,7 +3022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3038,6 +3038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3223,7 +3229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3251,6 +3257,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3278,26 +3311,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3309,34 +3324,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3374,11 +3380,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3720,1273 +3738,1273 @@
       <selection activeCell="A21" sqref="A21:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="20" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="M2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="30" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="30" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="20" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="G7" s="20" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="G7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="M7" s="20" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="M7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="30" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="20" t="s">
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="G12" s="20" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="G12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="M12" s="20" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="M12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="30" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="20" t="s">
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="M16" s="11" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="M16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="20" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="G17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="27" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="20" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="G22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="M22" s="20" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="M22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="30" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20" t="s">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="20" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="G26" s="11" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="G26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="33"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="20" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="M32" s="20" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="M32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-    </row>
-    <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="16"/>
+    </row>
+    <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34"/>
+      <c r="B33" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="27" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="30" t="s">
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20" t="s">
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="16"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="34"/>
+      <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20" t="s">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="39"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="23" t="s">
+      <c r="N36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="G37" s="20" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="M37" s="20" t="s">
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="M37" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="N37" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22" t="s">
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+    </row>
+    <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="34"/>
+      <c r="B38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="30" t="s">
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20" t="s">
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="34"/>
+      <c r="B39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="20" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="20" t="s">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="N41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="33"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="G42" s="20" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="G42" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
-      <c r="M42" s="20" t="s">
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="M42" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="36"/>
-    </row>
-    <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="16"/>
+    </row>
+    <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="34"/>
+      <c r="B43" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="27" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="30" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="36"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20" t="s">
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="16"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="20" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="20" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="39"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="19"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="M46" s="11" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="M46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="G47" s="20" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="G47" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22" t="s">
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="25"/>
+    </row>
+    <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="34"/>
+      <c r="B48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="27" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20" t="s">
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="34"/>
+      <c r="B49" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="20" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="23" t="s">
+      <c r="N51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="33"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="G52" s="20" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="G52" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="M52" s="20" t="s">
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="39"/>
+      <c r="M52" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="21" t="s">
+      <c r="N52" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="36"/>
-    </row>
-    <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22" t="s">
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="16"/>
+    </row>
+    <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="34"/>
+      <c r="B53" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="27" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="30" t="s">
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="36"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20" t="s">
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="16"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" s="34"/>
+      <c r="B54" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="20" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="20" t="s">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="39"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="19"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="G56" s="11" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="G56" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="13"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="13"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="33"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="13"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="16"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="36"/>
-    </row>
-    <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="25"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="16"/>
+    </row>
+    <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="34"/>
+      <c r="B58" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="16"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="36"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="16"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" s="34"/>
+      <c r="B59" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="19"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="39"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="19"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -5008,55 +5026,55 @@
       <c r="M61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="23" t="s">
+      <c r="N61" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="S61" s="11" t="s">
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="S61" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="13"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="22"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
       <c r="G62" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="26"/>
-      <c r="M62" s="20" t="s">
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="39"/>
+      <c r="M62" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="N62" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="16"/>
-    </row>
-    <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="25"/>
+    </row>
+    <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44"/>
       <c r="B63" s="46" t="s">
         <v>100</v>
@@ -5065,33 +5083,33 @@
       <c r="D63" s="47"/>
       <c r="E63" s="48"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="27" t="s">
+      <c r="H63" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="30" t="s">
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="32"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="25"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="45"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
       <c r="G64" s="45"/>
       <c r="H64" s="49" t="s">
         <v>20</v>
@@ -5099,503 +5117,711 @@
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
       <c r="K64" s="51"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="20" t="s">
+      <c r="M64" s="34"/>
+      <c r="N64" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="19"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="28"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="G66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="M66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N66" s="23" t="s">
+      <c r="N66" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="33"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="13"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="G67" s="20" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="G67" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
-      <c r="M67" s="20" t="s">
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="39"/>
+      <c r="M67" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="N67" s="21" t="s">
+      <c r="N67" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="36"/>
-    </row>
-    <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22" t="s">
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="16"/>
+    </row>
+    <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="34"/>
+      <c r="B68" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="27" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="29"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="30" t="s">
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="32"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="36"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21" t="s">
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="20" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="20" t="s">
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="39"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="19"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="G71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
       <c r="M71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N71" s="23" t="s">
+      <c r="N71" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="S71" s="11" t="s">
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="S71" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="13"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="22"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="G72" s="20" t="s">
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="G72" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="26"/>
-      <c r="M72" s="20" t="s">
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="39"/>
+      <c r="M72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="N72" s="21" t="s">
+      <c r="N72" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="16"/>
-    </row>
-    <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22" t="s">
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="25"/>
+    </row>
+    <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="34"/>
+      <c r="B73" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="27" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="29"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="30" t="s">
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="32"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="16"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21" t="s">
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="25"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="20" t="s">
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="20" t="s">
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="19"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="28"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
       <c r="G76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
       <c r="M76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N76" s="23" t="s">
+      <c r="N76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="S76" s="11" t="s">
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="S76" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="13"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="22"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="G77" s="20" t="s">
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="G77" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="H77" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="26"/>
-      <c r="M77" s="20" t="s">
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="39"/>
+      <c r="M77" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N77" s="21" t="s">
+      <c r="N77" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="16"/>
-    </row>
-    <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22" t="s">
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="25"/>
+    </row>
+    <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="34"/>
+      <c r="B78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="27" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="29"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="30" t="s">
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="32"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="16"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="20" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="20" t="s">
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="19"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="28"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="G80" s="11" t="s">
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="G80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="13"/>
-      <c r="M80" s="11" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
+      <c r="M80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="13"/>
-      <c r="S80" s="11" t="s">
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="22"/>
+      <c r="S80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="13"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="22"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="16"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="16"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="16"/>
-    </row>
-    <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="25"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="25"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="25"/>
+    </row>
+    <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="34"/>
+      <c r="B82" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="16"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="16"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="16"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="25"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="25"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="25"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="19"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="19"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="19"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="28"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="S80:W83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="G80:K83"/>
+    <mergeCell ref="M80:Q83"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="S76:W79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="S71:W74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="M72:M74"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="S66:W69"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="S61:W64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="S56:W59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G56:K59"/>
+    <mergeCell ref="M56:Q59"/>
+    <mergeCell ref="S51:W54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M16:Q19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G26:K29"/>
+    <mergeCell ref="M26:Q29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="R31:V34"/>
     <mergeCell ref="S41:W44"/>
     <mergeCell ref="M46:Q49"/>
@@ -5620,214 +5846,6 @@
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G26:K29"/>
-    <mergeCell ref="M26:Q29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="M16:Q19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="S56:W59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G56:K59"/>
-    <mergeCell ref="M56:Q59"/>
-    <mergeCell ref="S51:W54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="S61:W64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="S71:W74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="M72:M74"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="S66:W69"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="S80:W83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="G80:K83"/>
-    <mergeCell ref="M80:Q83"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="S76:W79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5837,111 +5855,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB372E8-5C3C-4A03-8262-1EEC197B4526}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:A84"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="G3" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="M3" s="20" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="M3" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="30" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="30" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
       <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
@@ -5954,7 +5972,7 @@
       <c r="E5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="8" t="s">
         <v>144</v>
       </c>
@@ -5967,7 +5985,7 @@
       <c r="K5" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="8" t="s">
         <v>144</v>
       </c>
@@ -5981,89 +5999,89 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="G8" s="20" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="G8" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="M8" s="20" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="M8" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="30" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6076,7 +6094,7 @@
       <c r="E10" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6089,7 +6107,7 @@
       <c r="K10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="8" t="s">
         <v>144</v>
       </c>
@@ -6103,89 +6121,89 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="G13" s="20" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="G13" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="M13" s="20" t="s">
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="M13" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="30" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6198,7 +6216,7 @@
       <c r="E15" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6211,7 +6229,7 @@
       <c r="K15" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="8" t="s">
         <v>144</v>
       </c>
@@ -6225,81 +6243,81 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="M17" s="11" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="M17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="20" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="G18" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="27" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:22" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
       <c r="B20" s="8" t="s">
         <v>144</v>
       </c>
@@ -6312,7 +6330,7 @@
       <c r="E20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="8" t="s">
         <v>144</v>
       </c>
@@ -6325,95 +6343,95 @@
       <c r="K20" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="G23" s="20" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="G23" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="M23" s="20" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="M23" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+    </row>
+    <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="27" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="30" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:22" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6426,7 +6444,7 @@
       <c r="E25" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6439,7 +6457,7 @@
       <c r="K25" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="21"/>
+      <c r="M25" s="34"/>
       <c r="N25" s="8" t="s">
         <v>144</v>
       </c>
@@ -6453,71 +6471,71 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="G27" s="11" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="G27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:22" ht="195" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
       <c r="B30" s="8" t="s">
         <v>144</v>
       </c>
@@ -6530,115 +6548,115 @@
       <c r="E30" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="33"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="G33" s="20" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="G33" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="M33" s="20" t="s">
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="M33" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-    </row>
-    <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="16"/>
+    </row>
+    <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34"/>
+      <c r="B34" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="27" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="30" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-    </row>
-    <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+    </row>
+    <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="34"/>
       <c r="B35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6651,7 +6669,7 @@
       <c r="E35" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6664,7 +6682,7 @@
       <c r="K35" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="M35" s="21"/>
+      <c r="M35" s="34"/>
       <c r="N35" s="8" t="s">
         <v>144</v>
       </c>
@@ -6677,95 +6695,95 @@
       <c r="Q35" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="39"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="G38" s="20" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="G38" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="M38" s="20" t="s">
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="M38" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="52" t="s">
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+    </row>
+    <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="34"/>
+      <c r="B39" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="27" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="30" t="s">
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+    </row>
+    <row r="40" spans="1:23" ht="232" x14ac:dyDescent="0.35">
+      <c r="A40" s="37"/>
       <c r="B40" s="8" t="s">
         <v>144</v>
       </c>
@@ -6778,7 +6796,7 @@
       <c r="E40" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G40" s="21"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="8" t="s">
         <v>144</v>
       </c>
@@ -6791,7 +6809,7 @@
       <c r="K40" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="M40" s="21"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="2" t="s">
         <v>144</v>
       </c>
@@ -6805,104 +6823,104 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
       <c r="M42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="23" t="s">
+      <c r="N42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="33"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="G43" s="20" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="G43" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
-      <c r="M43" s="20" t="s">
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
+      <c r="M43" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="36"/>
-    </row>
-    <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22" t="s">
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="16"/>
+    </row>
+    <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="27" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="30" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="36"/>
-    </row>
-    <row r="45" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="16"/>
+    </row>
+    <row r="45" spans="1:23" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
       <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6915,7 +6933,7 @@
       <c r="E45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6928,7 +6946,7 @@
       <c r="K45" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="21"/>
+      <c r="M45" s="34"/>
       <c r="N45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6941,87 +6959,87 @@
       <c r="Q45" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="39"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="19"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="M47" s="11" t="s">
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="M47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="G48" s="20" t="s">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="G48" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22" t="s">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="39"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
+    </row>
+    <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="34"/>
+      <c r="B49" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="27" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="32"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
@@ -7034,7 +7052,7 @@
       <c r="E50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="21"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="2" t="s">
         <v>144</v>
       </c>
@@ -7047,110 +7065,110 @@
       <c r="K50" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="19"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
       <c r="M52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="N52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="33"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="G53" s="20" t="s">
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="G53" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="M53" s="20" t="s">
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="39"/>
+      <c r="M53" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="N53" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="36"/>
-    </row>
-    <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22" t="s">
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="16"/>
+    </row>
+    <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="34"/>
+      <c r="B54" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="27" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="30" t="s">
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="36"/>
-    </row>
-    <row r="55" spans="1:23" ht="225" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="16"/>
+    </row>
+    <row r="55" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+      <c r="A55" s="34"/>
       <c r="B55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7163,7 +7181,7 @@
       <c r="E55" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G55" s="21"/>
+      <c r="G55" s="34"/>
       <c r="H55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7176,7 +7194,7 @@
       <c r="K55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="21"/>
+      <c r="M55" s="34"/>
       <c r="N55" s="2" t="s">
         <v>144</v>
       </c>
@@ -7189,93 +7207,93 @@
       <c r="Q55" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="39"/>
-    </row>
-    <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="19"/>
+    </row>
+    <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="G57" s="11" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="G57" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="13"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="33"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="22"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="13"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="16"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="36"/>
-    </row>
-    <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="16"/>
+    </row>
+    <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="34"/>
+      <c r="B59" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="16"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="36"/>
-    </row>
-    <row r="60" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="25"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="16"/>
+    </row>
+    <row r="60" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="34"/>
       <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
@@ -7288,93 +7306,93 @@
       <c r="E60" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="19"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="39"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="19"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
       <c r="M62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="N62" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="S62" s="11" t="s">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="S62" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="13"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="22"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
       <c r="G63" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="26"/>
-      <c r="M63" s="20" t="s">
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="39"/>
+      <c r="M63" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="N63" s="21" t="s">
+      <c r="N63" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="25"/>
+    </row>
+    <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44"/>
       <c r="B64" s="46" t="s">
         <v>100</v>
@@ -7383,26 +7401,26 @@
       <c r="D64" s="47"/>
       <c r="E64" s="48"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="30" t="s">
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="16"/>
-    </row>
-    <row r="65" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="25"/>
+    </row>
+    <row r="65" spans="1:23" ht="174" x14ac:dyDescent="0.35">
       <c r="A65" s="45"/>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -7429,7 +7447,7 @@
       <c r="K65" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M65" s="21"/>
+      <c r="M65" s="34"/>
       <c r="N65" s="2" t="s">
         <v>144</v>
       </c>
@@ -7442,110 +7460,110 @@
       <c r="Q65" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="S65" s="17"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="19"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S65" s="26"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="28"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
       <c r="M67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="23" t="s">
+      <c r="N67" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="33"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="13"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="G68" s="20" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="G68" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="26"/>
-      <c r="M68" s="20" t="s">
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="39"/>
+      <c r="M68" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="N68" s="21" t="s">
+      <c r="N68" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="36"/>
-    </row>
-    <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22" t="s">
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16"/>
+    </row>
+    <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="34"/>
+      <c r="B69" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="27" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="29"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="30" t="s">
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="32"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="36"/>
-    </row>
-    <row r="70" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="16"/>
+    </row>
+    <row r="70" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+      <c r="A70" s="34"/>
       <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
@@ -7558,7 +7576,7 @@
       <c r="E70" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G70" s="21"/>
+      <c r="G70" s="34"/>
       <c r="H70" s="2" t="s">
         <v>144</v>
       </c>
@@ -7571,119 +7589,119 @@
       <c r="K70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="M70" s="21"/>
+      <c r="M70" s="34"/>
       <c r="N70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="39"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S70" s="17"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="19"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
       <c r="M72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="23" t="s">
+      <c r="N72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="S72" s="11" t="s">
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="S72" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="13"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="22"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="G73" s="20" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="G73" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="H73" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="26"/>
-      <c r="M73" s="20" t="s">
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="39"/>
+      <c r="M73" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="16"/>
-    </row>
-    <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22" t="s">
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="25"/>
+    </row>
+    <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="34"/>
+      <c r="B74" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="27" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="29"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="30" t="s">
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="32"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="16"/>
-    </row>
-    <row r="75" spans="1:23" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="25"/>
+    </row>
+    <row r="75" spans="1:23" ht="174" x14ac:dyDescent="0.35">
+      <c r="A75" s="34"/>
       <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7691,7 +7709,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="34"/>
       <c r="H75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7704,7 +7722,7 @@
       <c r="K75" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="M75" s="21"/>
+      <c r="M75" s="34"/>
       <c r="N75" s="2" t="s">
         <v>144</v>
       </c>
@@ -7717,112 +7735,112 @@
       <c r="Q75" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S75" s="17"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="19"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S75" s="26"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="28"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
       <c r="M77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="23" t="s">
+      <c r="N77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="S77" s="11" t="s">
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="S77" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="13"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="22"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="G78" s="20" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="G78" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="H78" s="24" t="s">
+      <c r="H78" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="26"/>
-      <c r="M78" s="20" t="s">
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="39"/>
+      <c r="M78" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="N78" s="21" t="s">
+      <c r="N78" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="16"/>
-    </row>
-    <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22" t="s">
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
+    </row>
+    <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="34"/>
+      <c r="B79" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="27" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="29"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="30" t="s">
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="32"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="16"/>
-    </row>
-    <row r="80" spans="1:23" ht="240" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
+      <c r="V79" s="24"/>
+      <c r="W79" s="25"/>
+    </row>
+    <row r="80" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+      <c r="A80" s="34"/>
       <c r="B80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7836,7 +7854,7 @@
         <v>251</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="34"/>
       <c r="H80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7849,7 +7867,7 @@
       <c r="K80" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M80" s="21"/>
+      <c r="M80" s="34"/>
       <c r="N80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7862,96 +7880,96 @@
       <c r="Q80" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="S80" s="17"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="19"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S80" s="26"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="28"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="G81" s="11" t="s">
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="G81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="13"/>
-      <c r="M81" s="11" t="s">
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="22"/>
+      <c r="M81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="13"/>
-      <c r="S81" s="11" t="s">
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="22"/>
+      <c r="S81" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
-      <c r="W81" s="13"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="22"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="16"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="16"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="16"/>
-    </row>
-    <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22" t="s">
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="25"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="25"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="25"/>
+    </row>
+    <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="34"/>
+      <c r="B83" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="16"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="16"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="16"/>
-    </row>
-    <row r="84" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="25"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="25"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="25"/>
+    </row>
+    <row r="84" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="34"/>
       <c r="B84" s="8" t="s">
         <v>144</v>
       </c>
@@ -7965,42 +7983,178 @@
         <v>260</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="19"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="19"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="19"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="28"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="28"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="28"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C85" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:K84"/>
+    <mergeCell ref="M81:Q84"/>
+    <mergeCell ref="S81:W84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="S77:W80"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="S72:W75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="S67:W70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="S62:W65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:K60"/>
+    <mergeCell ref="M57:Q60"/>
+    <mergeCell ref="S57:W60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="S52:W55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="S42:W45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:Q50"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:V35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:K30"/>
+    <mergeCell ref="M27:Q30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="M17:Q20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="N12:Q12"/>
@@ -8025,157 +8179,21 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="M17:Q20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:K30"/>
-    <mergeCell ref="M27:Q30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:V35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:Q50"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="S42:W45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="S52:W55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="S62:W65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G57:K60"/>
-    <mergeCell ref="M57:Q60"/>
-    <mergeCell ref="S57:W60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="S67:W70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="S72:W75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="S77:W80"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:K84"/>
-    <mergeCell ref="M81:Q84"/>
-    <mergeCell ref="S81:W84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rqfs 1 entrega.xlsx
+++ b/rqfs 1 entrega.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nojam\OneDrive\Documentos\GitHub\proyectoIngDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5FCAF-327D-4106-9669-1665F3400EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824A9DF-A7FD-48FD-9D22-8F8082E72424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="338">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1229,21 +1229,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Usuarios: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Administrador,supervisor</t>
-    </r>
-  </si>
-  <si>
     <t>hasta aca son las de gasto</t>
   </si>
   <si>
@@ -1443,9 +1428,6 @@
     </r>
   </si>
   <si>
-    <t>RQF036</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2644,6 +2626,15 @@
       </rPr>
       <t>La base de datos debe permitir que el administrador consulte cual es el numero de contacto de cierto conductor en caso de imprevistos</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RQF025</t>
+  </si>
+  <si>
+    <t>RQF032</t>
   </si>
 </sst>
 </file>
@@ -2943,120 +2934,133 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3066,82 +3070,69 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3478,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FD4A21-C5AC-4848-A967-A5DA599C2F15}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3488,981 +3479,984 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="23" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="M2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="N2" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="32" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="32" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="23" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="M7" s="23" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="M7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="32" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="G12" s="23" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="G12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="M12" s="23" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="M12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="22" t="s">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="23" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="M17" s="23" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="M17" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="27"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="G22" s="23" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="M22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="24" t="s">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="M22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="32" t="s">
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="23" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23" t="s">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="M26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="G27" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="G27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="M27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="24" t="s">
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="M27" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
     </row>
     <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="32" t="s">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="28" t="s">
+      <c r="N31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="39"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="G32" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="29" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="G32" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-      <c r="M32" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" s="24" t="s">
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="M32" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="38"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
     </row>
     <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="32" t="s">
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="42"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="41"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="45"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="28" t="s">
+      <c r="N36" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="G37" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="29" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="G37" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="M37" s="23" t="s">
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+      <c r="M37" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="32" t="s">
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="21"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="45" t="s">
+      <c r="N41" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="35"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="63"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="39"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="G42" s="23" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="G42" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="48" t="s">
+      <c r="M42" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="N42" s="29" t="s">
+      <c r="N42" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="31"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="38"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="50"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="42"/>
     </row>
     <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="22" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
       <c r="L43" s="21"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="25" t="s">
+      <c r="M43" s="55"/>
+      <c r="N43" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="27"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="38"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="53"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="42"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="23" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="42" t="s">
+      <c r="M44" s="56"/>
+      <c r="N44" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="44"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="41"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="59"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="45"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L45" s="21"/>
@@ -4471,579 +4465,579 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="21"/>
       <c r="M46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="28" t="s">
+      <c r="N46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="G47" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="G47" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="H47" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="31"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="23" t="s">
+      <c r="M47" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="27"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H51" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="45" t="s">
+      <c r="N51" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="47"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="35"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="63"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="39"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="G52" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="G52" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="29" t="s">
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
+      <c r="M52" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
-      <c r="M52" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="31"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="38"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="50"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="42"/>
     </row>
     <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="53"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="27"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="38"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="53"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="42"/>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="23" t="s">
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="42" t="s">
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="44"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="41"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="59"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="45"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
       <c r="G56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
       <c r="M56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N56" s="28" t="s">
+      <c r="N56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="35"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="39"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
+      <c r="G57" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="50"/>
+      <c r="M57" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="N57" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="50"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="42"/>
+    </row>
+    <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="G57" s="23" t="s">
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="H57" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="31"/>
-      <c r="M57" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="N57" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="31"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="38"/>
-    </row>
-    <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25" t="s">
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="53"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="27"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="27"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="38"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="53"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="23" t="s">
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23" t="s">
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="41"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="45"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
       <c r="M61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="28" t="s">
+      <c r="N61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="35"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="39"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="G62" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
-      <c r="M62" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N62" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="38"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="M62" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N62" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="42"/>
     </row>
     <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="27"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="27"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="38"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="53"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="53"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="42"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="23" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="23" t="s">
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="23" t="s">
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="41"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="45"/>
     </row>
     <row r="65" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="S66" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="53"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="S66" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="29"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="88"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="56"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="32"/>
     </row>
     <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="56"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="32"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="58"/>
-      <c r="W69" s="59"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="35"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
@@ -5065,102 +5059,102 @@
       <c r="Q70" s="21"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="87"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
       <c r="L71" s="21"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="S71" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="53"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="S71" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="29"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="21"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
-      <c r="Q72" s="85"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="56"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="32"/>
     </row>
     <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="86"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86"/>
-      <c r="Q73" s="86"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="56"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="32"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="85"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="S74" s="57"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
-      <c r="W74" s="59"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="35"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
@@ -5182,290 +5176,341 @@
       <c r="Q75" s="21"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="87"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
       <c r="L76" s="21"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="S76" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="53"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="S76" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="29"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A77" s="84"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="85"/>
-      <c r="O77" s="85"/>
-      <c r="P77" s="85"/>
-      <c r="Q77" s="85"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="55"/>
-      <c r="U77" s="55"/>
-      <c r="V77" s="55"/>
-      <c r="W77" s="56"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="32"/>
     </row>
     <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="85"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="86"/>
-      <c r="K78" s="86"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="86"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="86"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="55"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="55"/>
-      <c r="W78" s="56"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="32"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="85"/>
-      <c r="O79" s="85"/>
-      <c r="P79" s="85"/>
-      <c r="Q79" s="85"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="58"/>
-      <c r="V79" s="58"/>
-      <c r="W79" s="59"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="35"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="87"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
       <c r="L80" s="21"/>
-      <c r="M80" s="87"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="S80" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T80" s="52"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="52"/>
-      <c r="W80" s="53"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="S80" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="29"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="85"/>
-      <c r="O81" s="85"/>
-      <c r="P81" s="85"/>
-      <c r="Q81" s="85"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="56"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="32"/>
     </row>
     <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="85"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="86"/>
-      <c r="K82" s="86"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
-      <c r="O82" s="86"/>
-      <c r="P82" s="86"/>
-      <c r="Q82" s="86"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="56"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="32"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A83" s="85"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="85"/>
-      <c r="N83" s="85"/>
-      <c r="O83" s="85"/>
-      <c r="P83" s="85"/>
-      <c r="Q83" s="85"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="58"/>
-      <c r="V83" s="58"/>
-      <c r="W83" s="59"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="S80:W83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="S76:W79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="S71:W74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="M72:M74"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="S66:W69"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="S61:W64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="S56:W59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="S51:W54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R31:V34"/>
+    <mergeCell ref="S41:W44"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
@@ -5490,144 +5535,93 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R31:V34"/>
-    <mergeCell ref="S41:W44"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="S56:W59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="S51:W54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="S61:W64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="S71:W74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="M72:M74"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="S66:W69"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="S80:W83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="S76:W79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5644,2303 +5638,2167 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="A1" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="G3" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="M3" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="M3" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-    </row>
-    <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22" t="s">
+      <c r="C5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="32" t="s">
+      <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="H7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="N7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="G8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="65" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="G8" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="M8" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="24" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="M8" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="32" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="M12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
+      <c r="N12" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="G13" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="M13" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="G13" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="M13" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="61" t="s">
+      <c r="N13" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+    </row>
+    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
+      <c r="B15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="M15" s="66"/>
+      <c r="N15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="M17" s="51" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="M17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="G18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="G18" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="H22" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="N22" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="G23" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="M23" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="G23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="M23" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="64" t="s">
+      <c r="N23" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25" t="s">
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+    </row>
+    <row r="25" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="32" t="s">
+      <c r="J25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" s="47"/>
+      <c r="N25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="G27" s="51" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="G27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="H32" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="35"/>
+      <c r="N32" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="39"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="G33" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="M33" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="G33" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-      <c r="M33" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N33" s="64" t="s">
+      <c r="N33" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="42"/>
     </row>
     <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25" t="s">
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="42"/>
+    </row>
+    <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
+      <c r="B35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="32" t="s">
+      <c r="D35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="38"/>
-    </row>
-    <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="J35" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="47"/>
+      <c r="N35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="41"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="45"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
+      <c r="H37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
+      <c r="N37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="G38" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="86"/>
+      <c r="M38" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="G38" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
-      <c r="M38" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="53"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25" t="s">
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+    </row>
+    <row r="40" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="32" t="s">
+      <c r="D40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="J40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M40" s="47"/>
+      <c r="N40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="P40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="B42" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
       <c r="G42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
+      <c r="H42" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="14"/>
       <c r="M42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="35"/>
+      <c r="N42" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="39"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="G43" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="G43" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="N43" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="38"/>
+      <c r="N43" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="42"/>
     </row>
     <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="42"/>
+    </row>
+    <row r="45" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="66"/>
+      <c r="H45" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="38"/>
-    </row>
-    <row r="45" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="J45" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="K45" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="J45" s="16" t="s">
+      <c r="L45" s="14"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O45" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="P45" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O45" s="16" t="s">
+      <c r="Q45" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="P45" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S45" s="39"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="41"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="45"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="M47" s="51" t="s">
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="M47" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="53"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="G48" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="29" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="G48" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="56"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="50"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="32"/>
     </row>
     <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="32"/>
+    </row>
+    <row r="50" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="56"/>
-    </row>
-    <row r="50" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="47"/>
+      <c r="H50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M50" s="57"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="59"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="35"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
+      <c r="B52" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="H52" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
       <c r="M52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="35"/>
+      <c r="N52" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="39"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="G53" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="M53" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="N53" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="42"/>
+    </row>
+    <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="72"/>
+      <c r="B54" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="53"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="42"/>
+    </row>
+    <row r="55" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="72"/>
+      <c r="B55" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="G53" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="31"/>
-      <c r="M53" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="N53" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="38"/>
-    </row>
-    <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25" t="s">
+      <c r="D55" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="47"/>
+      <c r="H55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="68" t="s">
+      <c r="M55" s="66"/>
+      <c r="N55" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O55" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="38"/>
-    </row>
-    <row r="55" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="79"/>
-      <c r="B55" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="P55" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="Q55" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M55" s="61"/>
-      <c r="N55" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O55" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P55" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="S55" s="39"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="41"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="G57" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="53"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="53"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="35"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="G57" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="29"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="39"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="61" t="s">
+      <c r="A58" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="56"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="38"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="32"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
-      <c r="B59" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="56"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="38"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="32"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="42"/>
     </row>
     <row r="60" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="59"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="59"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="41"/>
+        <v>293</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="35"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="45"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="B62" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
+      <c r="H62" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
       <c r="M62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="S62" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="53"/>
+      <c r="N62" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="S62" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="29"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="G63" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
+      <c r="M63" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B63" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
-      <c r="G63" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="31"/>
-      <c r="M63" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="N63" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="56"/>
+      <c r="N63" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="32"/>
     </row>
     <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49"/>
-      <c r="B64" s="81" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="70"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="53"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="83"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="25" t="s">
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="32"/>
+    </row>
+    <row r="65" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="56"/>
+      <c r="B65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="27"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="32" t="s">
+      <c r="E65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="56"/>
+      <c r="H65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="56"/>
-    </row>
-    <row r="65" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="K65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M65" s="47"/>
+      <c r="N65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="50"/>
-      <c r="H65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="P65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q65" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="58"/>
-      <c r="W65" s="59"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="35"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
+      <c r="B67" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
+      <c r="H67" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
       <c r="M67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="35"/>
+      <c r="N67" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="39"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="G68" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="50"/>
+      <c r="M68" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="G68" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="31"/>
-      <c r="M68" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="N68" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="38"/>
+      <c r="N68" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="42"/>
     </row>
     <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="47"/>
+      <c r="B69" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="38"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="42"/>
     </row>
     <row r="70" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="G70" s="47"/>
+      <c r="H70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M70" s="24"/>
+      <c r="M70" s="47"/>
       <c r="N70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="41"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="45"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
+      <c r="B72" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
+      <c r="H72" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
       <c r="M72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="S72" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="53"/>
+      <c r="N72" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="S72" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="29"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="G73" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="H73" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="G73" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="31"/>
-      <c r="M73" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="N73" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="56"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="50"/>
+      <c r="M73" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="N73" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="32"/>
     </row>
     <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="22" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="53"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="27"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
-      <c r="W74" s="56"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="60"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="32"/>
     </row>
     <row r="75" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="24"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J75" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" s="47"/>
+      <c r="N75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O75" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="P75" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O75" s="4" t="s">
+      <c r="Q75" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S75" s="57"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="58"/>
-      <c r="W75" s="59"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="35"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="B77" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
+      <c r="H77" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
       <c r="M77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="S77" s="51" t="s">
+      <c r="N77" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="S77" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="29"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="G78" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="53"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="50"/>
+      <c r="M78" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="N78" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="G78" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="31"/>
-      <c r="M78" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="N78" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="55"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="55"/>
-      <c r="W78" s="56"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="32"/>
     </row>
     <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="22" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="53"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25" t="s">
+      <c r="O79" s="60"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="32"/>
+    </row>
+    <row r="80" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="47"/>
+      <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="27"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="32" t="s">
+      <c r="J80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M80" s="47"/>
+      <c r="N80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="55"/>
-      <c r="W79" s="56"/>
-    </row>
-    <row r="80" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="P80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="S80" s="57"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
-      <c r="W80" s="59"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="35"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="G81" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="53"/>
-      <c r="M81" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="53"/>
-      <c r="S81" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="53"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="G81" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="29"/>
+      <c r="M81" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="29"/>
+      <c r="S81" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="29"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="56"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="56"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="56"/>
+      <c r="A82" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="32"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="32"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="32"/>
     </row>
     <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="56"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="56"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="56"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="32"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="32"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="32"/>
     </row>
     <row r="84" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="59"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="59"/>
-      <c r="S84" s="57"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
-      <c r="W84" s="59"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="35"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="35"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="34"/>
+      <c r="W84" s="35"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C85" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:K84"/>
-    <mergeCell ref="M81:Q84"/>
-    <mergeCell ref="S81:W84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="S77:W80"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="S72:W75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="S67:W70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="S62:W65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G57:K60"/>
-    <mergeCell ref="M57:Q60"/>
-    <mergeCell ref="S57:W60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="S52:W55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="S42:W45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:Q50"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="R32:V35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:K30"/>
-    <mergeCell ref="M27:Q30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="M17:Q20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="N12:Q12"/>
@@ -7965,21 +7823,157 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="M17:Q20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:K30"/>
+    <mergeCell ref="M27:Q30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:V35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:Q50"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="S42:W45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="S52:W55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="S62:W65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:K60"/>
+    <mergeCell ref="M57:Q60"/>
+    <mergeCell ref="S57:W60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="S67:W70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="S72:W75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="S77:W80"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:K84"/>
+    <mergeCell ref="M81:Q84"/>
+    <mergeCell ref="S81:W84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rqfs 1 entrega.xlsx
+++ b/rqfs 1 entrega.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nojam\OneDrive\Documentos\GitHub\proyectoIngDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824A9DF-A7FD-48FD-9D22-8F8082E72424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78B060-7EF0-4BDB-8DD5-A30A02C11677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2635,13 +2635,51 @@
   </si>
   <si>
     <t>RQF032</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar escalas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La base de datos debe permitir al administrador añadir o reducir la cantidad de escalas (si el viaje las posee) para llevar un registro actualizado de los itinerarios de viaje</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2651,6 +2689,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2877,7 +2922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2938,6 +2983,120 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2947,129 +3106,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3079,59 +3178,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3469,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FD4A21-C5AC-4848-A967-A5DA599C2F15}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,1466 +3549,1475 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="M2" s="46" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="64" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="64" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="46" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="G7" s="46" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="M7" s="46" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="M7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="64" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="46" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="G12" s="46" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="M12" s="46" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="M12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="51" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="60" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="G17" s="46" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="M17" s="46" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="M17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="60" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="51" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="46" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46" t="s">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="G22" s="46" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="M22" s="46" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="M22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
+      <c r="N22" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="60" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="46" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46" t="s">
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-    </row>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
       <c r="M26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="36" t="s">
+      <c r="N26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="G27" s="46" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="G27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="M27" s="46" t="s">
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="M27" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="51" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="64" t="s">
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="46" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="46" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="46" t="s">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="36" t="s">
+      <c r="N31" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="39"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="37"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="G32" s="46" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="G32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="M32" s="46" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="M32" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="42"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="40"/>
     </row>
     <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="51" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="64" t="s">
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="42"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="40"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="46" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="46" t="s">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="45"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="43"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="G36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="36" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="M36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="36" t="s">
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="G37" s="46" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-      <c r="M37" s="46" t="s">
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
     </row>
     <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="60" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="51" t="s">
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="64" t="s">
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="46" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="46" t="s">
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="21"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="61" t="s">
+      <c r="N41" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="63"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="39"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="49"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="37"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="G42" s="46" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="G42" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="54" t="s">
+      <c r="M42" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="N42" s="48" t="s">
+      <c r="N42" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="50"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="42"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="33"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="40"/>
     </row>
     <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="60" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="60" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="21"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="51" t="s">
+      <c r="M43" s="51"/>
+      <c r="N43" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="42"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="29"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="40"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="46" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57" t="s">
+      <c r="M44" s="52"/>
+      <c r="N44" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="59"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="46"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="43"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
       <c r="L46" s="21"/>
       <c r="M46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="36" t="s">
+      <c r="N46" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="G47" s="46" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="G47" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="50"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="46" t="s">
+      <c r="M47" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
     </row>
     <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="60" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="51" t="s">
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="53"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="60" t="s">
+      <c r="M48" s="26"/>
+      <c r="N48" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="66"/>
+      <c r="B49" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="46" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46" t="s">
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="G51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="36" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="G51" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="61" t="s">
+      <c r="N51" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="63"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="39"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="49"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="37"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="G52" s="46" t="s">
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="G52" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-      <c r="M52" s="54" t="s">
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+      <c r="M52" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N52" s="48" t="s">
+      <c r="N52" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="50"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="42"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="33"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="40"/>
     </row>
     <row r="53" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="51" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="51" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="51" t="s">
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="94"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="53"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="42"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="29"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="40"/>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="46" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="57" t="s">
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="59"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="46"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="43"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
       <c r="G56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
       <c r="M56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N56" s="36" t="s">
+      <c r="N56" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="39"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="37"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
-      <c r="G57" s="46" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="G57" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="H57" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="50"/>
-      <c r="M57" s="46" t="s">
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="M57" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="50"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="42"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="33"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="40"/>
     </row>
     <row r="58" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
-      <c r="B58" s="51" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="51" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="53"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="51" t="s">
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="29"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="53"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="42"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="29"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="40"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="46" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="46" t="s">
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="45"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="43"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="M61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N61" s="36" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="M61" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="39"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="37"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="G62" s="46" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="G62" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="48" t="s">
+      <c r="H62" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
-      <c r="M62" s="46" t="s">
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="33"/>
+      <c r="M62" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="N62" s="48" t="s">
+      <c r="N62" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="50"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="42"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="70"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="40"/>
     </row>
     <row r="63" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="51" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="53"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="51" t="s">
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="53"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="42"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="94"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="40"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
-      <c r="B64" s="46" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="46" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="46" t="s">
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="45"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="43"/>
     </row>
     <row r="65" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -4959,13 +5038,13 @@
       <c r="O66" s="23"/>
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
-      <c r="S66" s="27" t="s">
+      <c r="S66" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="29"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="55"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
@@ -4985,11 +5064,11 @@
       <c r="O67" s="23"/>
       <c r="P67" s="23"/>
       <c r="Q67" s="23"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="32"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="58"/>
     </row>
     <row r="68" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
@@ -5009,11 +5088,11 @@
       <c r="O68" s="23"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="32"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="58"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
@@ -5033,11 +5112,11 @@
       <c r="O69" s="23"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="35"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="61"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
@@ -5060,101 +5139,101 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
       <c r="F71" s="21"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
       <c r="L71" s="21"/>
       <c r="M71" s="22"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="S71" s="27" t="s">
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="S71" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="29"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="55"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
       <c r="L72" s="21"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="32"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="57"/>
+      <c r="U72" s="57"/>
+      <c r="V72" s="57"/>
+      <c r="W72" s="58"/>
     </row>
     <row r="73" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="32"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="57"/>
+      <c r="V73" s="57"/>
+      <c r="W73" s="58"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="35"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="60"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="61"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
@@ -5177,223 +5256,406 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
       <c r="F76" s="21"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
       <c r="L76" s="21"/>
       <c r="M76" s="22"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="S76" s="27" t="s">
+      <c r="N76" s="62"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="62"/>
+      <c r="S76" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="29"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="55"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="32"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
+      <c r="W77" s="58"/>
     </row>
     <row r="78" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="32"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="58"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="35"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="61"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
       <c r="F80" s="21"/>
       <c r="G80" s="22"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
       <c r="L80" s="21"/>
       <c r="M80" s="22"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="S80" s="27" t="s">
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="S80" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="29"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="54"/>
+      <c r="W80" s="55"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31"/>
-      <c r="W81" s="32"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="58"/>
     </row>
     <row r="82" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="32"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="64"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="58"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="35"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="S80:W83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="S76:W79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="S71:W74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="M72:M74"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="S66:W69"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="S61:W64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="S56:W59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="S51:W54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="N46:Q46"/>
     <mergeCell ref="M47:M49"/>
     <mergeCell ref="N47:Q47"/>
@@ -5418,212 +5680,30 @@
     <mergeCell ref="N41:Q41"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="S56:W59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="S51:W54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="S61:W64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="S71:W74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="M72:M74"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="S66:W69"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="S80:W83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="S76:W79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5638,104 +5718,104 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="G3" s="46" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="G3" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="M3" s="46" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="64" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="64" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7" t="s">
         <v>110</v>
       </c>
@@ -5748,7 +5828,7 @@
       <c r="E5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="7" t="s">
         <v>110</v>
       </c>
@@ -5761,7 +5841,7 @@
       <c r="K5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="47"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="7" t="s">
         <v>110</v>
       </c>
@@ -5779,85 +5859,85 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="G8" s="46" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="G8" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="M8" s="46" t="s">
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+      <c r="M8" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="51" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="64" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="7" t="s">
         <v>110</v>
       </c>
@@ -5870,7 +5950,7 @@
       <c r="E10" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7" t="s">
         <v>110</v>
       </c>
@@ -5883,7 +5963,7 @@
       <c r="K10" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="7" t="s">
         <v>110</v>
       </c>
@@ -5901,85 +5981,85 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
       <c r="M12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="G13" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="M13" s="65" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="M13" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="N13" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="51" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="75" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
     </row>
     <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
         <v>110</v>
       </c>
@@ -5992,7 +6072,7 @@
       <c r="E15" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="7" t="s">
         <v>110</v>
       </c>
@@ -6005,7 +6085,7 @@
       <c r="K15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="66"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="11" t="s">
         <v>110</v>
       </c>
@@ -6023,77 +6103,77 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="M17" s="27" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="M17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="51" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
     </row>
     <row r="20" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="7" t="s">
         <v>110</v>
       </c>
@@ -6106,7 +6186,7 @@
       <c r="E20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="7" t="s">
         <v>110</v>
       </c>
@@ -6119,95 +6199,95 @@
       <c r="K20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="G23" s="46" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="G23" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="M23" s="46" t="s">
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="M23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="N23" s="73" t="s">
+      <c r="N23" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="51" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="64" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
         <v>110</v>
       </c>
@@ -6220,7 +6300,7 @@
       <c r="E25" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="7" t="s">
         <v>110</v>
       </c>
@@ -6233,7 +6313,7 @@
       <c r="K25" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M25" s="47"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="7" t="s">
         <v>110</v>
       </c>
@@ -6251,67 +6331,67 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="27" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="32"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="7" t="s">
         <v>110</v>
       </c>
@@ -6324,115 +6404,115 @@
       <c r="E30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="39"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="37"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="G33" s="46" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="G33" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="M33" s="46" t="s">
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="M33" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="N33" s="73" t="s">
+      <c r="N33" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="42"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="40"/>
     </row>
     <row r="34" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="60" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="51" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="64" t="s">
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="42"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="40"/>
     </row>
     <row r="35" spans="1:23" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="7" t="s">
         <v>110</v>
       </c>
@@ -6445,7 +6525,7 @@
       <c r="E35" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="7" t="s">
         <v>110</v>
       </c>
@@ -6458,7 +6538,7 @@
       <c r="K35" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M35" s="47"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="7" t="s">
         <v>110</v>
       </c>
@@ -6471,95 +6551,95 @@
       <c r="Q35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="45"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="43"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="36" t="s">
+      <c r="N37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="G38" s="46" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="G38" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="86"/>
-      <c r="M38" s="46" t="s">
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="M38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
     </row>
     <row r="39" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="51" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="64" t="s">
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="7" t="s">
         <v>110</v>
       </c>
@@ -6572,7 +6652,7 @@
       <c r="E40" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="7" t="s">
         <v>110</v>
       </c>
@@ -6585,7 +6665,7 @@
       <c r="K40" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="M40" s="47"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="2" t="s">
         <v>110</v>
       </c>
@@ -6603,103 +6683,103 @@
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
       <c r="G42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="14"/>
       <c r="M42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="65" t="s">
+      <c r="N42" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="39"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="37"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="G43" s="65" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="G43" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="H43" s="76" t="s">
+      <c r="H43" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="65" t="s">
+      <c r="M43" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="N43" s="79" t="s">
+      <c r="N43" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="42"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="40"/>
     </row>
     <row r="44" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="60" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="81" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="82"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="75" t="s">
+      <c r="M44" s="71"/>
+      <c r="N44" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="42"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="40"/>
     </row>
     <row r="45" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
@@ -6712,7 +6792,7 @@
       <c r="E45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="66"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="15" t="s">
         <v>110</v>
       </c>
@@ -6726,7 +6806,7 @@
         <v>146</v>
       </c>
       <c r="L45" s="14"/>
-      <c r="M45" s="66"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="15" t="s">
         <v>110</v>
       </c>
@@ -6739,87 +6819,87 @@
       <c r="Q45" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S45" s="43"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="45"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="43"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="M47" s="27" t="s">
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="M47" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="29"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="G48" s="46" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="G48" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="50"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="58"/>
     </row>
     <row r="49" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="51" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="53"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="58"/>
     </row>
     <row r="50" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
@@ -6832,7 +6912,7 @@
       <c r="E50" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="2" t="s">
         <v>110</v>
       </c>
@@ -6845,110 +6925,110 @@
       <c r="K50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="35"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="61"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
       <c r="M52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="65" t="s">
+      <c r="N52" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="39"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="37"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="G53" s="46" t="s">
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="G53" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="M53" s="65" t="s">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="M53" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="N53" s="66" t="s">
+      <c r="N53" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="42"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="40"/>
     </row>
     <row r="54" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="72"/>
-      <c r="B54" s="74" t="s">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="51" t="s">
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="53"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="75" t="s">
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="42"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="40"/>
     </row>
     <row r="55" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="72"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="19" t="s">
         <v>110</v>
       </c>
@@ -6961,7 +7041,7 @@
       <c r="E55" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="47"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="2" t="s">
         <v>110</v>
       </c>
@@ -6974,7 +7054,7 @@
       <c r="K55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M55" s="66"/>
+      <c r="M55" s="71"/>
       <c r="N55" s="15" t="s">
         <v>110</v>
       </c>
@@ -6987,93 +7067,93 @@
       <c r="Q55" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="S55" s="43"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="45"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="43"/>
     </row>
     <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="G57" s="27" t="s">
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="G57" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="29"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="39"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="55"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="55"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="37"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="42"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="58"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="58"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="40"/>
     </row>
     <row r="59" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="42"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="58"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="58"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="40"/>
     </row>
     <row r="60" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="15" t="s">
         <v>110</v>
       </c>
@@ -7086,122 +7166,122 @@
       <c r="E60" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="35"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="45"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="61"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="61"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="43"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
       <c r="M62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="36" t="s">
+      <c r="N62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="S62" s="27" t="s">
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="S62" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="29"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="55"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-      <c r="G63" s="54" t="s">
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="G63" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="M63" s="46" t="s">
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="33"/>
+      <c r="M63" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="N63" s="47" t="s">
+      <c r="N63" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="32"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="58"/>
     </row>
     <row r="64" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="55"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="70"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="51" t="s">
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="88"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="53"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="64" t="s">
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="32"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="58"/>
     </row>
     <row r="65" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="56"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="2" t="s">
         <v>110</v>
       </c>
@@ -7214,7 +7294,7 @@
       <c r="E65" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="52"/>
       <c r="H65" s="2" t="s">
         <v>110</v>
       </c>
@@ -7227,7 +7307,7 @@
       <c r="K65" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M65" s="47"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="2" t="s">
         <v>110</v>
       </c>
@@ -7240,110 +7320,110 @@
       <c r="Q65" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="35"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="61"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
       <c r="M67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="36" t="s">
+      <c r="N67" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="39"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="37"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="G68" s="46" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="G68" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="50"/>
-      <c r="M68" s="46" t="s">
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="33"/>
+      <c r="M68" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="N68" s="47" t="s">
+      <c r="N68" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="41"/>
-      <c r="V68" s="41"/>
-      <c r="W68" s="42"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="40"/>
     </row>
     <row r="69" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="51" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="53"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="64" t="s">
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="42"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="40"/>
     </row>
     <row r="70" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="2" t="s">
         <v>110</v>
       </c>
@@ -7356,7 +7436,7 @@
       <c r="E70" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G70" s="47"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="2" t="s">
         <v>110</v>
       </c>
@@ -7369,119 +7449,119 @@
       <c r="K70" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M70" s="47"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="45"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="43"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="36" t="s">
+      <c r="H72" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
       <c r="M72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="36" t="s">
+      <c r="N72" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="S72" s="27" t="s">
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="S72" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="29"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="55"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="G73" s="46" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="G73" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="H73" s="48" t="s">
+      <c r="H73" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="50"/>
-      <c r="M73" s="46" t="s">
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="33"/>
+      <c r="M73" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="N73" s="47" t="s">
+      <c r="N73" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="32"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="57"/>
+      <c r="V73" s="57"/>
+      <c r="W73" s="58"/>
     </row>
     <row r="74" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
-      <c r="B74" s="60" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="51" t="s">
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="53"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="64" t="s">
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="O74" s="60"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="32"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
+      <c r="W74" s="58"/>
     </row>
     <row r="75" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
@@ -7489,7 +7569,7 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="47"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="2" t="s">
         <v>110</v>
       </c>
@@ -7502,7 +7582,7 @@
       <c r="K75" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M75" s="47"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="2" t="s">
         <v>110</v>
       </c>
@@ -7515,112 +7595,112 @@
       <c r="Q75" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="S75" s="33"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="35"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="61"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="M77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="36" t="s">
+      <c r="N77" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="S77" s="27" t="s">
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="S77" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="29"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="55"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="G78" s="46" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="G78" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H78" s="48" t="s">
+      <c r="H78" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="50"/>
-      <c r="M78" s="46" t="s">
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="33"/>
+      <c r="M78" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="N78" s="47" t="s">
+      <c r="N78" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="32"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="58"/>
     </row>
     <row r="79" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47"/>
-      <c r="B79" s="60" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="51" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="53"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="64" t="s">
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="W79" s="32"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="58"/>
     </row>
     <row r="80" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="47"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="2" t="s">
         <v>110</v>
       </c>
@@ -7634,7 +7714,7 @@
         <v>181</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="47"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="2" t="s">
         <v>110</v>
       </c>
@@ -7647,7 +7727,7 @@
       <c r="K80" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M80" s="47"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="2" t="s">
         <v>110</v>
       </c>
@@ -7660,96 +7740,96 @@
       <c r="Q80" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="S80" s="33"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="35"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="61"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="G81" s="27" t="s">
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="G81" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="29"/>
-      <c r="M81" s="27" t="s">
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55"/>
+      <c r="M81" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="29"/>
-      <c r="S81" s="27" t="s">
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="55"/>
+      <c r="S81" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="29"/>
+      <c r="T81" s="54"/>
+      <c r="U81" s="54"/>
+      <c r="V81" s="54"/>
+      <c r="W81" s="55"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="32"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="32"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="32"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="58"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="58"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="58"/>
     </row>
     <row r="83" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="32"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="32"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="31"/>
-      <c r="W83" s="32"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="58"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="58"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="58"/>
     </row>
     <row r="84" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="7" t="s">
         <v>110</v>
       </c>
@@ -7763,42 +7843,178 @@
         <v>186</v>
       </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="35"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="35"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="35"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="61"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="61"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="61"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C85" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:K84"/>
+    <mergeCell ref="M81:Q84"/>
+    <mergeCell ref="S81:W84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="S77:W80"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="S72:W75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="S67:W70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="S62:W65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:K60"/>
+    <mergeCell ref="M57:Q60"/>
+    <mergeCell ref="S57:W60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="S52:W55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="S42:W45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:Q50"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="R32:V35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:K30"/>
+    <mergeCell ref="M27:Q30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="M17:Q20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="N12:Q12"/>
@@ -7823,157 +8039,21 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="M17:Q20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:K30"/>
-    <mergeCell ref="M27:Q30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:V35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:Q50"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="S42:W45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="S52:W55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="S62:W65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G57:K60"/>
-    <mergeCell ref="M57:Q60"/>
-    <mergeCell ref="S57:W60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="S67:W70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="S72:W75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="S77:W80"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:K84"/>
-    <mergeCell ref="M81:Q84"/>
-    <mergeCell ref="S81:W84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
